--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-21/Sample-21.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-21/Sample-21.xlsx
@@ -119,68 +119,39 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
+    <xf numFmtId="0" fontId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="3" applyProtection="1"/>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="1" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="1" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="2" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="3" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="4" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="5" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="6" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="7" applyProtection="1"/>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" xfId="8" applyProtection="1"/>
     <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="2" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="3" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="4" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="5" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="6" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="7" applyProtection="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" xfId="8" applyProtection="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="j4fsepdy" xfId="1"/>
-    <cellStyle name="j4fsepdy_Alternate" xfId="2"/>
-    <cellStyle name="yqo1xxas" xfId="3"/>
-    <cellStyle name="yqo1xxas_Alternate" xfId="4"/>
-    <cellStyle name="13i1rddm" xfId="5"/>
-    <cellStyle name="13i1rddm_Alternate" xfId="6"/>
-    <cellStyle name="ftnix4mj" xfId="7"/>
-    <cellStyle name="ftnix4mj_Alternate" xfId="8"/>
+    <cellStyle name="b3n0qllk" xfId="1"/>
+    <cellStyle name="b3n0qllk_Alternate" xfId="2"/>
+    <cellStyle name="ochdxwhw" xfId="3"/>
+    <cellStyle name="ochdxwhw_Alternate" xfId="4"/>
+    <cellStyle name="cghmmfaa" xfId="5"/>
+    <cellStyle name="cghmmfaa_Alternate" xfId="6"/>
+    <cellStyle name="jisfvjoa" xfId="7"/>
+    <cellStyle name="jisfvjoa_Alternate" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -195,12 +166,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="9" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -214,7 +185,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -228,7 +199,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -242,7 +213,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="0" t="s">
@@ -256,7 +227,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -270,7 +241,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -284,7 +255,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="0" t="s">
@@ -298,7 +269,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="0" t="s">
@@ -312,7 +283,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="0" t="s">
@@ -326,7 +297,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C12" s="0" t="s">
@@ -367,72 +338,72 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="9" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="7" t="s">
+      <c r="J4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="K4" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="L4" s="9" t="s">
         <v>22</v>
       </c>
     </row>

--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-21/Sample-21.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-21/Sample-21.xlsx
@@ -8,6 +8,10 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet1'!$B$1:$K$13</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Sheet2'!$B$3:$L$4</definedName>
+  </definedNames>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -144,14 +148,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="b3n0qllk" xfId="1"/>
-    <cellStyle name="b3n0qllk_Alternate" xfId="2"/>
-    <cellStyle name="ochdxwhw" xfId="3"/>
-    <cellStyle name="ochdxwhw_Alternate" xfId="4"/>
-    <cellStyle name="cghmmfaa" xfId="5"/>
-    <cellStyle name="cghmmfaa_Alternate" xfId="6"/>
-    <cellStyle name="jisfvjoa" xfId="7"/>
-    <cellStyle name="jisfvjoa_Alternate" xfId="8"/>
+    <cellStyle name="gsdi24mq" xfId="1"/>
+    <cellStyle name="gsdi24mq_Alternate" xfId="2"/>
+    <cellStyle name="1f15go2d" xfId="3"/>
+    <cellStyle name="1f15go2d_Alternate" xfId="4"/>
+    <cellStyle name="eczfizng" xfId="5"/>
+    <cellStyle name="eczfizng_Alternate" xfId="6"/>
+    <cellStyle name="hggppfec" xfId="7"/>
+    <cellStyle name="hggppfec_Alternate" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
@@ -164,6 +168,18 @@
     <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" bestFit="1" width="12.804933547973633" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="13.102706909179688" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="9" max="9" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="10" max="10" bestFit="1" width="10.48570728302002" customWidth="1"/>
+    <col min="11" max="11" bestFit="1" width="13.102706909179688" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="B1" s="9" t="s">
@@ -325,6 +341,8 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -336,6 +354,19 @@
     <sheetView workbookViewId="0" showGridLines="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" bestFit="1" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" bestFit="1" width="12.908170700073242" customWidth="1"/>
+    <col min="4" max="4" bestFit="1" width="12.908170700073242" customWidth="1"/>
+    <col min="5" max="5" bestFit="1" width="12.908170700073242" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="12.908170700073242" customWidth="1"/>
+    <col min="7" max="7" bestFit="1" width="12.908170700073242" customWidth="1"/>
+    <col min="8" max="8" bestFit="1" width="12.908170700073242" customWidth="1"/>
+    <col min="9" max="9" bestFit="1" width="12.908170700073242" customWidth="1"/>
+    <col min="10" max="10" bestFit="1" width="12.908170700073242" customWidth="1"/>
+    <col min="11" max="11" bestFit="1" width="12.908170700073242" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="12.908170700073242" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3">
       <c r="B3" s="9" t="s">
@@ -408,6 +439,8 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.787400" right="0.787400" top="0.787400" bottom="0.787400" header="0.315" footer="0.315"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-21/Sample-21.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-21/Sample-21.xlsx
@@ -148,14 +148,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="gsdi24mq" xfId="1"/>
-    <cellStyle name="gsdi24mq_Alternate" xfId="2"/>
-    <cellStyle name="1f15go2d" xfId="3"/>
-    <cellStyle name="1f15go2d_Alternate" xfId="4"/>
-    <cellStyle name="eczfizng" xfId="5"/>
-    <cellStyle name="eczfizng_Alternate" xfId="6"/>
-    <cellStyle name="hggppfec" xfId="7"/>
-    <cellStyle name="hggppfec_Alternate" xfId="8"/>
+    <cellStyle name="wx0cjuy1" xfId="1"/>
+    <cellStyle name="wx0cjuy1_Alternate" xfId="2"/>
+    <cellStyle name="od43rbtc" xfId="3"/>
+    <cellStyle name="od43rbtc_Alternate" xfId="4"/>
+    <cellStyle name="jekgnivm" xfId="5"/>
+    <cellStyle name="jekgnivm_Alternate" xfId="6"/>
+    <cellStyle name="5d5gxkdq" xfId="7"/>
+    <cellStyle name="5d5gxkdq_Alternate" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>

--- a/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-21/Sample-21.xlsx
+++ b/src/samples/NetCore/iXlsxWriter.ConsoleAppCore/Output/Sample-21/Sample-21.xlsx
@@ -148,14 +148,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="wx0cjuy1" xfId="1"/>
-    <cellStyle name="wx0cjuy1_Alternate" xfId="2"/>
-    <cellStyle name="od43rbtc" xfId="3"/>
-    <cellStyle name="od43rbtc_Alternate" xfId="4"/>
-    <cellStyle name="jekgnivm" xfId="5"/>
-    <cellStyle name="jekgnivm_Alternate" xfId="6"/>
-    <cellStyle name="5d5gxkdq" xfId="7"/>
-    <cellStyle name="5d5gxkdq_Alternate" xfId="8"/>
+    <cellStyle name="owwoxxwk" xfId="1"/>
+    <cellStyle name="owwoxxwk_Alternate" xfId="2"/>
+    <cellStyle name="2evt4okl" xfId="3"/>
+    <cellStyle name="2evt4okl_Alternate" xfId="4"/>
+    <cellStyle name="k2bcnp3m" xfId="5"/>
+    <cellStyle name="k2bcnp3m_Alternate" xfId="6"/>
+    <cellStyle name="ble3oqz5" xfId="7"/>
+    <cellStyle name="ble3oqz5_Alternate" xfId="8"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
